--- a/tables/crosstab/crosstab_safety_time/regulations VS frequently.xlsx
+++ b/tables/crosstab/crosstab_safety_time/regulations VS frequently.xlsx
@@ -462,28 +462,28 @@
         <v>34</v>
       </c>
       <c r="D2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2">
         <v>6</v>
       </c>
       <c r="F2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G2">
-        <v>7.13</v>
+        <v>7.25</v>
       </c>
       <c r="H2">
-        <v>8.35</v>
+        <v>8.5</v>
       </c>
       <c r="I2">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="J2">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="K2">
-        <v>25.55</v>
+        <v>25.75</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -491,34 +491,34 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3">
         <v>80</v>
       </c>
       <c r="D3">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="G3">
-        <v>16.95</v>
+        <v>17</v>
       </c>
       <c r="H3">
-        <v>19.66</v>
+        <v>20</v>
       </c>
       <c r="I3">
-        <v>32.43</v>
+        <v>32</v>
       </c>
       <c r="J3">
-        <v>5.41</v>
+        <v>5.25</v>
       </c>
       <c r="K3">
-        <v>74.45</v>
+        <v>74.25</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -526,31 +526,31 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4">
         <v>114</v>
       </c>
       <c r="D4">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="G4">
-        <v>24.08</v>
+        <v>24.25</v>
       </c>
       <c r="H4">
-        <v>28.01</v>
+        <v>28.5</v>
       </c>
       <c r="I4">
-        <v>41.03</v>
+        <v>40.5</v>
       </c>
       <c r="J4">
-        <v>6.88</v>
+        <v>6.75</v>
       </c>
       <c r="K4">
         <v>100</v>
